--- a/ozone/multistate/ANO-RCC-VTZP/ozone_112.00/ozone_112.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_112.00/ozone_112.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7808447678</v>
+        <v>-0.5605295187</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.50927819</v>
+        <v>-224.73613661</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.29012295</v>
+        <v>-225.29666612</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5113559468</v>
+        <v>-224.5113559466</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7419907732</v>
+        <v>-0.569162016</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49963035</v>
+        <v>-224.66421932</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.24162112</v>
+        <v>-225.23338133</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5113559468</v>
+        <v>-224.5113559466</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8395646989</v>
+        <v>-0.5719302858</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42659227</v>
+        <v>-224.6448457</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26615697</v>
+        <v>-225.21677599</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5113559468</v>
+        <v>-224.5113559466</v>
       </c>
     </row>
   </sheetData>
